--- a/chiffrage financier.xlsx
+++ b/chiffrage financier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajed\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE8F6C93-6FE4-4AEF-8B89-268EAE81110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3AF7EC-EE4F-4789-AF25-1E4EC933C21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F992EE-968A-499A-ABD9-DE60DBD9B965}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Modèle</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Dell PowerEdge R760xs</t>
   </si>
   <si>
-    <t>https://www.dell.com/fr-fr/shop/nos-solutions-serveurs-stockage-et-réseaux/smart-selection-poweredge-r760xs-serveur-rack/spd/poweredge-r760xs/per760xs1a</t>
-  </si>
-  <si>
     <t>Ubiquiti UniFi AC-Pro</t>
   </si>
   <si>
@@ -80,33 +77,15 @@
     <t>UniFi Patch Cable</t>
   </si>
   <si>
-    <t>https://eu.store.ui.com/eu/en/pro/category/all-wifi/products/uap-ac-pro</t>
-  </si>
-  <si>
     <t>Cisco Catalyst 9200</t>
   </si>
   <si>
     <t>Ensemble MK370</t>
   </si>
   <si>
-    <t>https://www.logitech.com/fr-fr/products/combos/mk370-keyboard-mouse.html</t>
-  </si>
-  <si>
-    <t>https://www.lenovo.com/fr/fr/p/laptops/thinkpad/thinkpadx/thinkpad-x13-yoga-gen-4-(13-inch-intel)/21f2cto1wwfr3?cid=fr:sem:eyc53x&amp;gad_source=1&amp;gclid=Cj0KCQjw5cOwBhCiARIsAJ5njuZYNYuUSpV76GnqroN31BrEX7fi_TZ9mgBokEbl6-IOj2BfaOWlQRMaAosBEALw_wcB&amp;gclsrc=aw.ds</t>
-  </si>
-  <si>
-    <t>https://www.inmac-wstore.com/cisco-catalyst-9200-essential-edition-commutateur-48-ports-intelligent-montable-sur-rack/p7189381.htm</t>
-  </si>
-  <si>
-    <t>https://eu.store.ui.com/eu/en/pro/category/whats-new/products/unifi-ethernet-patch-cable-with-bendable-booted-rj45</t>
-  </si>
-  <si>
     <t>Cisco ISR 1100</t>
   </si>
   <si>
-    <t>https://www.busiboutique.com/produit/cisco-isr-1100-8-ports-dual-ge-wan-ethernet-router-256179.html</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -132,6 +111,45 @@
   </si>
   <si>
     <t>Prix total</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Lead Développeur Frontend</t>
+  </si>
+  <si>
+    <t>Lead Développeur Backend</t>
+  </si>
+  <si>
+    <t>Frais de licence</t>
+  </si>
+  <si>
+    <t>Dell Serveur</t>
+  </si>
+  <si>
+    <t>Cisco WAN Router</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>Cisco Catalyst</t>
+  </si>
+  <si>
+    <t>Péripheriques</t>
+  </si>
+  <si>
+    <t>Unify Patch Cable</t>
+  </si>
+  <si>
+    <t>Lenovo Thinkpad</t>
+  </si>
+  <si>
+    <t>Graphiste</t>
+  </si>
+  <si>
+    <t>Coût journalier</t>
   </si>
 </sst>
 </file>
@@ -155,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,13 +182,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,12 +236,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -529,48 +581,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4A1760-FC22-4589-AF0F-4313707CAE73}">
-  <dimension ref="A2:I30"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -595,17 +647,13 @@
         <f>F3*1.2</f>
         <v>20275.2</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <f>SUM( G3:G9)</f>
-        <v>306458.44799999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1104</v>
@@ -628,13 +676,13 @@
         <f t="shared" ref="G4:G9" si="2">F4*1.2</f>
         <v>31813.439999999995</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>137</v>
@@ -657,13 +705,13 @@
         <f t="shared" si="2"/>
         <v>1972.8</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>3661.93</v>
@@ -686,13 +734,13 @@
         <f t="shared" si="2"/>
         <v>63278.207999999991</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1200</v>
@@ -715,13 +763,13 @@
         <f t="shared" si="2"/>
         <v>183600</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1.85</v>
@@ -744,13 +792,13 @@
         <f t="shared" si="2"/>
         <v>119.88</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>49.99</v>
@@ -773,114 +821,272 @@
         <f t="shared" si="2"/>
         <v>5398.92</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUM(B3:B9)</f>
+        <v>9674.77</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:G10" si="3">SUM(C3:C9)</f>
+        <v>271</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="3"/>
+        <v>194055.51</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="3"/>
+        <v>11860.489999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>255382.03999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>306458.44799999997</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <f>(D13*C13)*B13</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14">
+        <f>(D14*C14)*B14</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <f>(D15*C15)*B15</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>500</v>
+      </c>
+      <c r="E16">
+        <f>(D16*C16)*B16</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6">
+        <f>SUM(B13:B16)</f>
+        <v>23</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" ref="C17" si="4">SUM(C13:C16)</f>
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <f>SUM(D13:D16)</f>
+        <v>2000</v>
+      </c>
+      <c r="E17" s="6">
+        <f>SUM(E13:E16)</f>
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>550</v>
+      </c>
+      <c r="D20">
+        <f>C20*B20</f>
+        <v>55000</v>
+      </c>
+      <c r="E20">
+        <f>1.2*D20</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>550</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D23" si="5">C21*B21</f>
+        <v>55000</v>
+      </c>
+      <c r="E21">
+        <f>1.2*D21</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>255</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>5100</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E21:E23" si="6">1.2*D22</f>
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <f>21*3*QUOTIENT(B23,20)/30</f>
+        <v>10.5</v>
+      </c>
+      <c r="D23">
+        <f>C23*B23</f>
+        <v>1050</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" ref="B24:D24" si="7">SUM(B20:B23)</f>
+        <v>320</v>
+      </c>
+      <c r="C24" s="8">
+        <f>SUM(C20:C23)</f>
+        <v>1365.5</v>
+      </c>
+      <c r="D24" s="8">
+        <f>SUM(D20:D23)</f>
+        <v>116150</v>
+      </c>
+      <c r="E24" s="8">
+        <f>SUM(E20:E23)</f>
+        <v>139380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>500</v>
-      </c>
-      <c r="G18">
-        <f>(F18*C18)*B18</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>500</v>
-      </c>
-      <c r="G19">
-        <f>(F19*C19)*B19</f>
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>500</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ref="G20:G37" si="3">(F20*C20)*B20</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>500</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G22">
-        <f>SUM(G18:G21)</f>
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4">
-        <f>G22+I3</f>
-        <v>334958.44799999997</v>
+      <c r="B26" s="7">
+        <f>G10+E17+E24</f>
+        <v>474338.44799999997</v>
       </c>
     </row>
   </sheetData>
